--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.31309001461423</v>
+        <v>1.642758</v>
       </c>
       <c r="H2">
-        <v>1.31309001461423</v>
+        <v>4.928274</v>
       </c>
       <c r="I2">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="J2">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.566558895983448</v>
+        <v>0.8591896666666666</v>
       </c>
       <c r="N2">
-        <v>0.566558895983448</v>
+        <v>2.577569</v>
       </c>
       <c r="O2">
-        <v>0.1890720743480749</v>
+        <v>0.2409726039012864</v>
       </c>
       <c r="P2">
-        <v>0.1890720743480749</v>
+        <v>0.2409726039012864</v>
       </c>
       <c r="Q2">
-        <v>0.7439428290067277</v>
+        <v>1.411440698434</v>
       </c>
       <c r="R2">
-        <v>0.7439428290067277</v>
+        <v>12.702966285906</v>
       </c>
       <c r="S2">
-        <v>0.01891833990896306</v>
+        <v>0.02002771209953727</v>
       </c>
       <c r="T2">
-        <v>0.01891833990896306</v>
+        <v>0.02002771209953727</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.31309001461423</v>
+        <v>1.642758</v>
       </c>
       <c r="H3">
-        <v>1.31309001461423</v>
+        <v>4.928274</v>
       </c>
       <c r="I3">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="J3">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.57553410604684</v>
+        <v>1.625213</v>
       </c>
       <c r="N3">
-        <v>1.57553410604684</v>
+        <v>4.875639</v>
       </c>
       <c r="O3">
-        <v>0.5257873519386388</v>
+        <v>0.4558153149392564</v>
       </c>
       <c r="P3">
-        <v>0.5257873519386388</v>
+        <v>0.4558153149392564</v>
       </c>
       <c r="Q3">
-        <v>2.068818102334263</v>
+        <v>2.669831657454</v>
       </c>
       <c r="R3">
-        <v>2.068818102334263</v>
+        <v>24.028484917086</v>
       </c>
       <c r="S3">
-        <v>0.05260969330402882</v>
+        <v>0.03788371686394264</v>
       </c>
       <c r="T3">
-        <v>0.05260969330402882</v>
+        <v>0.03788371686394265</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.31309001461423</v>
+        <v>1.642758</v>
       </c>
       <c r="H4">
-        <v>1.31309001461423</v>
+        <v>4.928274</v>
       </c>
       <c r="I4">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="J4">
-        <v>0.1000588795262016</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.8544304027980389</v>
+        <v>0.1725803333333333</v>
       </c>
       <c r="N4">
-        <v>0.8544304027980389</v>
+        <v>0.517741</v>
       </c>
       <c r="O4">
-        <v>0.2851405737132862</v>
+        <v>0.0484027379738257</v>
       </c>
       <c r="P4">
-        <v>0.2851405737132862</v>
+        <v>0.0484027379738257</v>
       </c>
       <c r="Q4">
-        <v>1.121944030096919</v>
+        <v>0.283507723226</v>
       </c>
       <c r="R4">
-        <v>1.121944030096919</v>
+        <v>2.551569509034</v>
       </c>
       <c r="S4">
-        <v>0.02853084631320971</v>
+        <v>0.004022847764745202</v>
       </c>
       <c r="T4">
-        <v>0.02853084631320971</v>
+        <v>0.004022847764745202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.8100832692759</v>
+        <v>1.642758</v>
       </c>
       <c r="H5">
-        <v>11.8100832692759</v>
+        <v>4.928274</v>
       </c>
       <c r="I5">
-        <v>0.8999411204737984</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="J5">
-        <v>0.8999411204737984</v>
+        <v>0.08311198773343359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.566558895983448</v>
+        <v>0.9085246666666666</v>
       </c>
       <c r="N5">
-        <v>0.566558895983448</v>
+        <v>2.725574</v>
       </c>
       <c r="O5">
-        <v>0.1890720743480749</v>
+        <v>0.2548093431856314</v>
       </c>
       <c r="P5">
-        <v>0.1890720743480749</v>
+        <v>0.2548093431856315</v>
       </c>
       <c r="Q5">
-        <v>6.691107738513544</v>
+        <v>1.492486164364</v>
       </c>
       <c r="R5">
-        <v>6.691107738513544</v>
+        <v>13.432375479276</v>
       </c>
       <c r="S5">
-        <v>0.1701537344391118</v>
+        <v>0.02117771100520847</v>
       </c>
       <c r="T5">
-        <v>0.1701537344391118</v>
+        <v>0.02117771100520847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.8100832692759</v>
+        <v>0.4045783333333333</v>
       </c>
       <c r="H6">
-        <v>11.8100832692759</v>
+        <v>1.213735</v>
       </c>
       <c r="I6">
-        <v>0.8999411204737984</v>
+        <v>0.02046881493026545</v>
       </c>
       <c r="J6">
-        <v>0.8999411204737984</v>
+        <v>0.02046881493026545</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.57553410604684</v>
+        <v>0.8591896666666666</v>
       </c>
       <c r="N6">
-        <v>1.57553410604684</v>
+        <v>2.577569</v>
       </c>
       <c r="O6">
-        <v>0.5257873519386388</v>
+        <v>0.2409726039012864</v>
       </c>
       <c r="P6">
-        <v>0.5257873519386388</v>
+        <v>0.2409726039012864</v>
       </c>
       <c r="Q6">
-        <v>18.60718898599735</v>
+        <v>0.3476095233572222</v>
       </c>
       <c r="R6">
-        <v>18.60718898599735</v>
+        <v>3.128485710215</v>
       </c>
       <c r="S6">
-        <v>0.47317765863461</v>
+        <v>0.004932423632519593</v>
       </c>
       <c r="T6">
-        <v>0.47317765863461</v>
+        <v>0.004932423632519593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4045783333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.213735</v>
+      </c>
+      <c r="I7">
+        <v>0.02046881493026545</v>
+      </c>
+      <c r="J7">
+        <v>0.02046881493026545</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.625213</v>
+      </c>
+      <c r="N7">
+        <v>4.875639</v>
+      </c>
+      <c r="O7">
+        <v>0.4558153149392564</v>
+      </c>
+      <c r="P7">
+        <v>0.4558153149392564</v>
+      </c>
+      <c r="Q7">
+        <v>0.6575259668516665</v>
+      </c>
+      <c r="R7">
+        <v>5.917733701665</v>
+      </c>
+      <c r="S7">
+        <v>0.009329999323872297</v>
+      </c>
+      <c r="T7">
+        <v>0.009329999323872299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4045783333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.213735</v>
+      </c>
+      <c r="I8">
+        <v>0.02046881493026545</v>
+      </c>
+      <c r="J8">
+        <v>0.02046881493026545</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1725803333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.517741</v>
+      </c>
+      <c r="O8">
+        <v>0.0484027379738257</v>
+      </c>
+      <c r="P8">
+        <v>0.0484027379738257</v>
+      </c>
+      <c r="Q8">
+        <v>0.0698222636261111</v>
+      </c>
+      <c r="R8">
+        <v>0.628400372635</v>
+      </c>
+      <c r="S8">
+        <v>0.0009907466857043698</v>
+      </c>
+      <c r="T8">
+        <v>0.0009907466857043698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4045783333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.213735</v>
+      </c>
+      <c r="I9">
+        <v>0.02046881493026545</v>
+      </c>
+      <c r="J9">
+        <v>0.02046881493026545</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9085246666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.725574</v>
+      </c>
+      <c r="O9">
+        <v>0.2548093431856314</v>
+      </c>
+      <c r="P9">
+        <v>0.2548093431856315</v>
+      </c>
+      <c r="Q9">
+        <v>0.3675693954322222</v>
+      </c>
+      <c r="R9">
+        <v>3.30812455889</v>
+      </c>
+      <c r="S9">
+        <v>0.005215645288169184</v>
+      </c>
+      <c r="T9">
+        <v>0.005215645288169185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.71826</v>
+      </c>
+      <c r="H10">
+        <v>53.15478</v>
+      </c>
+      <c r="I10">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="J10">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8591896666666666</v>
+      </c>
+      <c r="N10">
+        <v>2.577569</v>
+      </c>
+      <c r="O10">
+        <v>0.2409726039012864</v>
+      </c>
+      <c r="P10">
+        <v>0.2409726039012864</v>
+      </c>
+      <c r="Q10">
+        <v>15.22334590331333</v>
+      </c>
+      <c r="R10">
+        <v>137.01011312982</v>
+      </c>
+      <c r="S10">
+        <v>0.2160124681692295</v>
+      </c>
+      <c r="T10">
+        <v>0.2160124681692296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.71826</v>
+      </c>
+      <c r="H11">
+        <v>53.15478</v>
+      </c>
+      <c r="I11">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="J11">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.625213</v>
+      </c>
+      <c r="N11">
+        <v>4.875639</v>
+      </c>
+      <c r="O11">
+        <v>0.4558153149392564</v>
+      </c>
+      <c r="P11">
+        <v>0.4558153149392564</v>
+      </c>
+      <c r="Q11">
+        <v>28.79594648938</v>
+      </c>
+      <c r="R11">
+        <v>259.16351840442</v>
+      </c>
+      <c r="S11">
+        <v>0.4086015987514414</v>
+      </c>
+      <c r="T11">
+        <v>0.4086015987514415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>11.8100832692759</v>
-      </c>
-      <c r="H7">
-        <v>11.8100832692759</v>
-      </c>
-      <c r="I7">
-        <v>0.8999411204737984</v>
-      </c>
-      <c r="J7">
-        <v>0.8999411204737984</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.8544304027980389</v>
-      </c>
-      <c r="N7">
-        <v>0.8544304027980389</v>
-      </c>
-      <c r="O7">
-        <v>0.2851405737132862</v>
-      </c>
-      <c r="P7">
-        <v>0.2851405737132862</v>
-      </c>
-      <c r="Q7">
-        <v>10.09089420484579</v>
-      </c>
-      <c r="R7">
-        <v>10.09089420484579</v>
-      </c>
-      <c r="S7">
-        <v>0.2566097274000765</v>
-      </c>
-      <c r="T7">
-        <v>0.2566097274000765</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>17.71826</v>
+      </c>
+      <c r="H12">
+        <v>53.15478</v>
+      </c>
+      <c r="I12">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="J12">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1725803333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.517741</v>
+      </c>
+      <c r="O12">
+        <v>0.0484027379738257</v>
+      </c>
+      <c r="P12">
+        <v>0.0484027379738257</v>
+      </c>
+      <c r="Q12">
+        <v>3.057823216886667</v>
+      </c>
+      <c r="R12">
+        <v>27.52040895198</v>
+      </c>
+      <c r="S12">
+        <v>0.04338914352337613</v>
+      </c>
+      <c r="T12">
+        <v>0.04338914352337613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.71826</v>
+      </c>
+      <c r="H13">
+        <v>53.15478</v>
+      </c>
+      <c r="I13">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="J13">
+        <v>0.8964191973363009</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9085246666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.725574</v>
+      </c>
+      <c r="O13">
+        <v>0.2548093431856314</v>
+      </c>
+      <c r="P13">
+        <v>0.2548093431856315</v>
+      </c>
+      <c r="Q13">
+        <v>16.09747626041333</v>
+      </c>
+      <c r="R13">
+        <v>144.87728634372</v>
+      </c>
+      <c r="S13">
+        <v>0.2284159868922538</v>
+      </c>
+      <c r="T13">
+        <v>0.2284159868922538</v>
       </c>
     </row>
   </sheetData>
